--- a/data/management/Management_information_KAL_2017.xlsx
+++ b/data/management/Management_information_KAL_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\seadrive_root\Tien-Che\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F04A16-445A-4687-91F7-19AC9DDBF0A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAACB31-27E7-394D-846F-F63FD91A175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="25440" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="34080" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bon_2017" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>General information</t>
   </si>
@@ -282,9 +282,6 @@
     <t xml:space="preserve">1st nitrogen application </t>
   </si>
   <si>
-    <t>N-Düngung KAS</t>
-  </si>
-  <si>
     <t>4th application of fungicide</t>
   </si>
   <si>
@@ -354,15 +351,6 @@
     <t>19,5 m2</t>
   </si>
   <si>
-    <t>50 kg/ha</t>
-  </si>
-  <si>
-    <t>25 kg/ha</t>
-  </si>
-  <si>
-    <t>60 kg/ha</t>
-  </si>
-  <si>
     <t>0-27 cm  Granular - blocky subangular; 27-41 cm blocky angular - blocky subangular; 41-75 cm blocky angular - prismatic; 75-87 cm prismatic - blocky angular; 87-115 cm blocky subangular; 115-127 cm blocky subangular; 127-140+ cm coherent</t>
   </si>
   <si>
@@ -370,6 +358,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -682,94 +673,93 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="17" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="13" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="13" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="13" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1005,20 +995,20 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C46"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="9" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1">
@@ -1031,8 +1021,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>105</v>
+      <c r="B2" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1080,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1108,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1116,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1124,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1148,74 +1138,55 @@
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="48">
         <v>76</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="C21" s="42"/>
       <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="98.25" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="53">
+      <c r="B22" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="51">
         <v>2005</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="28"/>
       <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="49">
         <v>42668</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="28"/>
       <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12">
@@ -1226,11 +1197,9 @@
         <v>66</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="29"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="32"/>
       <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12">
@@ -1241,69 +1210,58 @@
         <v>67</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="29"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="32"/>
       <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="29"/>
+      <c r="C26" s="42"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="32"/>
       <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="29"/>
+      <c r="B27" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="40">
         <v>0.15</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="45">
         <v>42248</v>
       </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="40">
         <v>0.08</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="45">
         <v>42248</v>
       </c>
       <c r="L29" s="24"/>
@@ -1312,10 +1270,10 @@
       <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="40">
         <v>0.77</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="45">
         <v>42248</v>
       </c>
       <c r="L30" s="24"/>
@@ -1324,10 +1282,10 @@
       <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="39">
         <v>7</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="45">
         <v>42248</v>
       </c>
       <c r="L31" s="24"/>
@@ -1336,10 +1294,10 @@
       <c r="A32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="40">
         <v>2.4E-2</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="45">
         <v>42248</v>
       </c>
       <c r="L32" s="24"/>
@@ -1348,10 +1306,10 @@
       <c r="A33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="45">
         <v>42248</v>
       </c>
       <c r="L33" s="24"/>
@@ -1360,10 +1318,10 @@
       <c r="A34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="45">
         <v>42248</v>
       </c>
       <c r="L34" s="24"/>
@@ -1372,20 +1330,20 @@
       <c r="A35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="46"/>
+      <c r="B35" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="44"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="46">
         <v>42767</v>
       </c>
       <c r="L36" s="24"/>
@@ -1394,10 +1352,10 @@
       <c r="A37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="46">
         <v>42783</v>
       </c>
       <c r="L37" s="24"/>
@@ -1406,10 +1364,10 @@
       <c r="A38" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="46">
         <v>42783</v>
       </c>
       <c r="L38" s="24"/>
@@ -1418,10 +1376,10 @@
       <c r="A39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="46">
         <v>42783</v>
       </c>
       <c r="L39" s="24"/>
@@ -1431,9 +1389,9 @@
         <v>37</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="45"/>
+        <v>94</v>
+      </c>
+      <c r="C40" s="43"/>
       <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12">
@@ -1501,14 +1459,14 @@
       <c r="C44" s="7">
         <v>42818</v>
       </c>
-      <c r="D44" s="39">
-        <v>0</v>
-      </c>
-      <c r="E44" s="39">
-        <v>0</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>98</v>
+      <c r="D44" s="37">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="G44" s="9">
         <v>42677</v>
@@ -1519,11 +1477,11 @@
       <c r="I44" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J44" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="32" t="s">
-        <v>115</v>
+      <c r="K44" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L44" s="24"/>
     </row>
@@ -1537,29 +1495,29 @@
       <c r="C45" s="11">
         <v>42844</v>
       </c>
-      <c r="D45" s="39">
-        <v>0</v>
-      </c>
-      <c r="E45" s="39">
-        <v>0</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>99</v>
+      <c r="D45" s="37">
+        <v>0</v>
+      </c>
+      <c r="E45" s="37">
+        <v>0</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="G45" s="9">
         <v>42870</v>
       </c>
-      <c r="H45" s="36" t="s">
-        <v>103</v>
+      <c r="H45" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="32" t="s">
-        <v>115</v>
+      <c r="K45" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L45" s="24"/>
     </row>
@@ -1573,29 +1531,29 @@
       <c r="C46" s="11">
         <v>42884</v>
       </c>
-      <c r="D46" s="39">
-        <v>0</v>
-      </c>
-      <c r="E46" s="39">
-        <v>0</v>
-      </c>
-      <c r="F46" s="36" t="s">
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="37">
+        <v>0</v>
+      </c>
+      <c r="F46" s="34" t="s">
         <v>53</v>
       </c>
       <c r="G46" s="9">
         <v>42888</v>
       </c>
       <c r="H46" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J46" s="32" t="s">
+      <c r="J46" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="32" t="s">
-        <v>115</v>
+      <c r="K46" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L46" s="24"/>
     </row>
@@ -1610,20 +1568,20 @@
       <c r="F47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="28">
-        <v>0</v>
-      </c>
-      <c r="H47" s="28">
-        <v>0</v>
-      </c>
-      <c r="I47" s="28">
-        <v>0</v>
-      </c>
-      <c r="J47" s="32" t="s">
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K47" s="32" t="s">
-        <v>115</v>
+      <c r="K47" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L47" s="24"/>
     </row>
@@ -1635,23 +1593,23 @@
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="28">
-        <v>0</v>
-      </c>
-      <c r="H48" s="28">
-        <v>0</v>
-      </c>
-      <c r="I48" s="28">
-        <v>0</v>
-      </c>
-      <c r="J48" s="32" t="s">
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="32" t="s">
-        <v>115</v>
+      <c r="K48" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L48" s="24"/>
     </row>
@@ -1666,20 +1624,20 @@
       <c r="F49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="28">
-        <v>0</v>
-      </c>
-      <c r="H49" s="28">
-        <v>0</v>
-      </c>
-      <c r="I49" s="28">
-        <v>0</v>
-      </c>
-      <c r="J49" s="32" t="s">
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="32" t="s">
-        <v>115</v>
+      <c r="K49" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L49" s="24"/>
     </row>
@@ -1692,18 +1650,18 @@
       <c r="D50" s="12"/>
       <c r="E50" s="25"/>
       <c r="F50" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="28">
-        <v>0</v>
-      </c>
-      <c r="H50" s="28">
-        <v>0</v>
-      </c>
-      <c r="I50" s="28">
-        <v>0</v>
-      </c>
-      <c r="J50" s="32"/>
+        <v>86</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="30"/>
       <c r="K50" s="18"/>
       <c r="L50" s="24"/>
     </row>
@@ -1718,13 +1676,13 @@
       <c r="F51" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="28">
-        <v>0</v>
-      </c>
-      <c r="H51" s="28">
-        <v>0</v>
-      </c>
-      <c r="I51" s="28">
+      <c r="G51" s="8">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
         <v>0</v>
       </c>
       <c r="J51" s="18"/>
@@ -1742,13 +1700,13 @@
       <c r="F52" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="28">
-        <v>0</v>
-      </c>
-      <c r="H52" s="28">
-        <v>0</v>
-      </c>
-      <c r="I52" s="28">
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
         <v>0</v>
       </c>
       <c r="J52" s="18"/>
@@ -1804,14 +1762,14 @@
       <c r="C55" s="7">
         <v>42818</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>98</v>
+      <c r="D55" s="36">
+        <v>50</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="G55" s="9">
         <v>42677</v>
@@ -1822,11 +1780,11 @@
       <c r="I55" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J55" s="32" t="s">
+      <c r="J55" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K55" s="32" t="s">
-        <v>115</v>
+      <c r="K55" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L55" s="24"/>
     </row>
@@ -1840,29 +1798,29 @@
       <c r="C56" s="11">
         <v>42844</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>99</v>
+      <c r="D56" s="36">
+        <v>25</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="G56" s="9">
         <v>42870</v>
       </c>
-      <c r="H56" s="36" t="s">
-        <v>102</v>
+      <c r="H56" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J56" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K56" s="32" t="s">
-        <v>115</v>
+      <c r="K56" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L56" s="24"/>
     </row>
@@ -1876,29 +1834,29 @@
       <c r="C57" s="11">
         <v>42884</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="36">
+        <v>60</v>
+      </c>
+      <c r="E57" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="34" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="9">
         <v>42888</v>
       </c>
       <c r="H57" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I57" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J57" s="32" t="s">
+      <c r="J57" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K57" s="32" t="s">
-        <v>115</v>
+      <c r="K57" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L57" s="24"/>
     </row>
@@ -1913,20 +1871,20 @@
       <c r="F58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="28">
-        <v>0</v>
-      </c>
-      <c r="H58" s="28">
-        <v>0</v>
-      </c>
-      <c r="I58" s="28">
-        <v>0</v>
-      </c>
-      <c r="J58" s="32" t="s">
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K58" s="32" t="s">
-        <v>115</v>
+      <c r="K58" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L58" s="24"/>
     </row>
@@ -1938,23 +1896,23 @@
       <c r="C59" s="7"/>
       <c r="D59" s="26"/>
       <c r="E59" s="25"/>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G59" s="28">
-        <v>0</v>
-      </c>
-      <c r="H59" s="28">
-        <v>0</v>
-      </c>
-      <c r="I59" s="28">
-        <v>0</v>
-      </c>
-      <c r="J59" s="32" t="s">
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="32" t="s">
-        <v>115</v>
+      <c r="K59" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L59" s="24"/>
     </row>
@@ -1969,20 +1927,20 @@
       <c r="F60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="28">
-        <v>0</v>
-      </c>
-      <c r="H60" s="28">
-        <v>0</v>
-      </c>
-      <c r="I60" s="28">
-        <v>0</v>
-      </c>
-      <c r="J60" s="32" t="s">
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="32" t="s">
-        <v>115</v>
+      <c r="K60" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="L60" s="24"/>
     </row>
@@ -1995,15 +1953,15 @@
       <c r="D61" s="26"/>
       <c r="E61" s="25"/>
       <c r="F61" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="28">
-        <v>0</v>
-      </c>
-      <c r="H61" s="28">
-        <v>0</v>
-      </c>
-      <c r="I61" s="28">
+        <v>86</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
         <v>0</v>
       </c>
       <c r="J61" s="18"/>
@@ -2025,7 +1983,7 @@
         <v>42817</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>73</v>
@@ -2048,11 +2006,11 @@
       <c r="G63" s="9">
         <v>42846</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="10"/>
@@ -2114,14 +2072,14 @@
       <c r="C66" s="7">
         <v>42818</v>
       </c>
-      <c r="D66" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>98</v>
+      <c r="D66" s="36">
+        <v>50</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="G66" s="9">
         <v>42677</v>
@@ -2132,11 +2090,11 @@
       <c r="I66" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J66" s="32" t="s">
+      <c r="J66" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="32" t="s">
-        <v>115</v>
+      <c r="K66" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2149,29 +2107,29 @@
       <c r="C67" s="11">
         <v>42844</v>
       </c>
-      <c r="D67" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>99</v>
+      <c r="D67" s="36">
+        <v>25</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="G67" s="9">
         <v>42870</v>
       </c>
-      <c r="H67" s="36" t="s">
-        <v>102</v>
+      <c r="H67" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J67" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J67" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K67" s="32" t="s">
-        <v>115</v>
+      <c r="K67" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2184,29 +2142,29 @@
       <c r="C68" s="11">
         <v>42884</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="36">
+        <v>60</v>
+      </c>
+      <c r="E68" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="34" t="s">
         <v>53</v>
       </c>
       <c r="G68" s="9">
         <v>42888</v>
       </c>
       <c r="H68" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I68" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J68" s="32" t="s">
+      <c r="J68" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="32" t="s">
-        <v>115</v>
+      <c r="K68" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2224,16 +2182,16 @@
         <v>42849</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J69" s="32" t="s">
+      <c r="J69" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K69" s="32" t="s">
-        <v>115</v>
+      <c r="K69" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2244,23 +2202,23 @@
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G70" s="9">
         <v>42870</v>
       </c>
-      <c r="H70" s="36" t="s">
-        <v>101</v>
+      <c r="H70" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J70" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K70" s="32" t="s">
-        <v>115</v>
+      <c r="K70" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2277,17 +2235,17 @@
       <c r="G71" s="9">
         <v>42886</v>
       </c>
-      <c r="H71" s="36" t="s">
-        <v>100</v>
+      <c r="H71" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K71" s="32" t="s">
-        <v>115</v>
+      <c r="K71" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2299,15 +2257,15 @@
       <c r="D72" s="15"/>
       <c r="E72" s="13"/>
       <c r="F72" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" s="28">
-        <v>0</v>
-      </c>
-      <c r="H72" s="28">
-        <v>0</v>
-      </c>
-      <c r="I72" s="28">
+        <v>86</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
         <v>0</v>
       </c>
       <c r="J72" s="18"/>
@@ -2328,7 +2286,7 @@
         <v>42817</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>73</v>
@@ -2350,11 +2308,11 @@
       <c r="G74" s="9">
         <v>42846</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="I74" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="J74" s="18"/>
       <c r="K74" s="10"/>
@@ -2382,7 +2340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>
@@ -2396,7 +2354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>

--- a/data/management/Management_information_KAL_2017.xlsx
+++ b/data/management/Management_information_KAL_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAACB31-27E7-394D-846F-F63FD91A175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A8D6C-5D81-D946-803A-E44478BC32A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="34080" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,12 +222,6 @@
     <t>8,25 m2</t>
   </si>
   <si>
-    <t>Zückerrüben</t>
-  </si>
-  <si>
-    <t>Wintergerste</t>
-  </si>
-  <si>
     <t>13 (mg/100g)</t>
   </si>
   <si>
@@ -361,6 +355,12 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>sugar beet</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -756,10 +756,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="20"/>
     </row>
@@ -1163,14 +1163,14 @@
         <v>19</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="51">
         <v>2005</v>
       </c>
       <c r="D22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="28"/>
       <c r="L22" s="24"/>
     </row>
@@ -1179,13 +1179,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="49">
         <v>42668</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="28"/>
       <c r="L23" s="24"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C24" s="20"/>
       <c r="F24" s="32"/>
@@ -1207,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C25" s="20"/>
       <c r="F25" s="32"/>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C26" s="42"/>
       <c r="F26" s="32"/>
@@ -1233,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" s="44"/>
       <c r="F27" s="32"/>
@@ -1307,7 +1307,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="45">
         <v>42248</v>
@@ -1319,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="45">
         <v>42248</v>
@@ -1331,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="44"/>
       <c r="L35" s="24"/>
@@ -1341,7 +1341,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="46">
         <v>42767</v>
@@ -1353,7 +1353,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="46">
         <v>42783</v>
@@ -1365,7 +1365,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="46">
         <v>42783</v>
@@ -1377,7 +1377,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="46">
         <v>42783</v>
@@ -1389,7 +1389,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="43"/>
       <c r="L40" s="24"/>
@@ -1454,7 +1454,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="7">
         <v>42818</v>
@@ -1466,22 +1466,22 @@
         <v>0</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G44" s="9">
         <v>42677</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>49</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L44" s="24"/>
     </row>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G45" s="9">
         <v>42870</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>51</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L45" s="24"/>
     </row>
@@ -1544,16 +1544,16 @@
         <v>42888</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L46" s="24"/>
     </row>
@@ -1581,7 +1581,7 @@
         <v>55</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L47" s="24"/>
     </row>
@@ -1609,7 +1609,7 @@
         <v>57</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L48" s="24"/>
     </row>
@@ -1637,7 +1637,7 @@
         <v>59</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L49" s="24"/>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="25"/>
       <c r="F50" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="7">
         <v>42818</v>
@@ -1765,26 +1765,26 @@
       <c r="D55" s="36">
         <v>50</v>
       </c>
-      <c r="E55" s="53" t="s">
-        <v>112</v>
+      <c r="E55" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G55" s="9">
         <v>42677</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J55" s="30" t="s">
         <v>49</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L55" s="24"/>
     </row>
@@ -1801,26 +1801,26 @@
       <c r="D56" s="36">
         <v>25</v>
       </c>
-      <c r="E56" s="53" t="s">
-        <v>112</v>
+      <c r="E56" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G56" s="9">
         <v>42870</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J56" s="30" t="s">
         <v>51</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L56" s="24"/>
     </row>
@@ -1837,8 +1837,8 @@
       <c r="D57" s="36">
         <v>60</v>
       </c>
-      <c r="E57" s="53" t="s">
-        <v>112</v>
+      <c r="E57" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>53</v>
@@ -1847,16 +1847,16 @@
         <v>42888</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J57" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L57" s="24"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>55</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L58" s="24"/>
     </row>
@@ -1912,7 +1912,7 @@
         <v>57</v>
       </c>
       <c r="K59" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L59" s="24"/>
     </row>
@@ -1940,7 +1940,7 @@
         <v>59</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L60" s="24"/>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="25"/>
       <c r="F61" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G61" s="8">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>42817</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
@@ -2007,10 +2007,10 @@
         <v>42846</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="10"/>
@@ -2075,26 +2075,26 @@
       <c r="D66" s="36">
         <v>50</v>
       </c>
-      <c r="E66" s="53" t="s">
-        <v>112</v>
+      <c r="E66" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G66" s="9">
         <v>42677</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J66" s="30" t="s">
         <v>49</v>
       </c>
       <c r="K66" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2110,26 +2110,26 @@
       <c r="D67" s="36">
         <v>25</v>
       </c>
-      <c r="E67" s="53" t="s">
-        <v>112</v>
+      <c r="E67" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G67" s="9">
         <v>42870</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J67" s="30" t="s">
         <v>51</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2145,8 +2145,8 @@
       <c r="D68" s="36">
         <v>60</v>
       </c>
-      <c r="E68" s="53" t="s">
-        <v>112</v>
+      <c r="E68" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>53</v>
@@ -2155,16 +2155,16 @@
         <v>42888</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J68" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2182,16 +2182,16 @@
         <v>42849</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J69" s="30" t="s">
         <v>55</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2209,16 +2209,16 @@
         <v>42870</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J70" s="30" t="s">
         <v>57</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2236,16 +2236,16 @@
         <v>42886</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J71" s="30" t="s">
         <v>59</v>
       </c>
       <c r="K71" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2257,7 +2257,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="13"/>
       <c r="F72" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G72" s="8">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>42817</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="10"/>
@@ -2309,10 +2309,10 @@
         <v>42846</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J74" s="18"/>
       <c r="K74" s="10"/>
